--- a/Images_and_Data/Data/qtest_excel.xlsx
+++ b/Images_and_Data/Data/qtest_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\ModSimPy_Directory\Images_and_Data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EC4EB89-AF32-4A14-9A10-BF27B54E99FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6FCA10-86FD-4FE4-9962-CF9E00EA7F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="270" yWindow="330" windowWidth="18645" windowHeight="14325" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -75,6 +75,21 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>Obviously it's not red.</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>You're brilliant!</t>
+  </si>
+  <si>
+    <t>You're stupid.</t>
+  </si>
+  <si>
+    <t>So close. But not really that close.</t>
   </si>
 </sst>
 </file>
@@ -426,18 +441,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6C7967-0C46-4F3F-B2F4-DFA8B1F9707A}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="46" customWidth="1"/>
+    <col min="4" max="4" width="72" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,8 +463,11 @@
       <c r="C1" t="s">
         <v>6</v>
       </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -458,8 +477,11 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -469,8 +491,11 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -480,8 +505,11 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -490,6 +518,9 @@
       </c>
       <c r="C5" t="s">
         <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Images_and_Data/Data/qtest_excel.xlsx
+++ b/Images_and_Data/Data/qtest_excel.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\ModSimPy_Directory\Images_and_Data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6FCA10-86FD-4FE4-9962-CF9E00EA7F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45DF7AD-7998-42E2-8109-B8F26E3DDC08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="330" windowWidth="18645" windowHeight="14325" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
+    <workbookView xWindow="270" yWindow="330" windowWidth="18645" windowHeight="14325" activeTab="1" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -90,6 +91,9 @@
   </si>
   <si>
     <t>So close. But not really that close.</t>
+  </si>
+  <si>
+    <t>How many twizzlers did you eat?</t>
   </si>
 </sst>
 </file>
@@ -443,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6C7967-0C46-4F3F-B2F4-DFA8B1F9707A}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,4 +530,94 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EF158B-CA6E-4845-8BF3-FADC014DDA1D}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35" customWidth="1"/>
+    <col min="4" max="4" width="45.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Images_and_Data/Data/qtest_excel.xlsx
+++ b/Images_and_Data/Data/qtest_excel.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\ModSimPy_Directory\Images_and_Data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45DF7AD-7998-42E2-8109-B8F26E3DDC08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7692F589-DCF0-4B0B-BF9F-F2BD1C9AEDD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="330" windowWidth="18645" windowHeight="14325" activeTab="1" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
+    <workbookView xWindow="270" yWindow="330" windowWidth="18645" windowHeight="14325" activeTab="2" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -94,6 +95,12 @@
   </si>
   <si>
     <t>How many twizzlers did you eat?</t>
+  </si>
+  <si>
+    <t>What is 40.1 times 3?</t>
+  </si>
+  <si>
+    <t>Leeway</t>
   </si>
 </sst>
 </file>
@@ -536,7 +543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EF158B-CA6E-4845-8BF3-FADC014DDA1D}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -620,4 +627,42 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E4A378-C52B-465E-833B-740E46756CFE}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="36.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>120.3</v>
+      </c>
+      <c r="C2">
+        <v>0.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Images_and_Data/Data/qtest_excel.xlsx
+++ b/Images_and_Data/Data/qtest_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\ModSimPy_Directory\Images_and_Data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7692F589-DCF0-4B0B-BF9F-F2BD1C9AEDD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DEC85E-E0C1-4F52-9828-C7A2C565F744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="270" yWindow="330" windowWidth="18645" windowHeight="14325" activeTab="2" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -101,6 +101,15 @@
   </si>
   <si>
     <t>Leeway</t>
+  </si>
+  <si>
+    <t>Don't forget to include the density</t>
+  </si>
+  <si>
+    <t>You may have a problem with units</t>
+  </si>
+  <si>
+    <t>Did you add correctly, shithead?</t>
   </si>
 </sst>
 </file>
@@ -631,10 +640,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E4A378-C52B-465E-833B-740E46756CFE}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,6 +671,21 @@
         <v>0.3</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Images_and_Data/Data/qtest_excel.xlsx
+++ b/Images_and_Data/Data/qtest_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\ModSimPy_Directory\Images_and_Data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DEC85E-E0C1-4F52-9828-C7A2C565F744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D42BAF0-F6A0-46DC-A08C-7A6795D5F1C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="270" yWindow="330" windowWidth="18645" windowHeight="14325" activeTab="2" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Did you add correctly, shithead?</t>
+  </si>
+  <si>
+    <t>Comments</t>
   </si>
 </sst>
 </file>
@@ -640,10 +643,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E4A378-C52B-465E-833B-740E46756CFE}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D3" sqref="D3:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,15 +655,18 @@
     <col min="3" max="3" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>19</v>
       </c>
       <c r="C1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -671,18 +677,27 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
     </row>

--- a/Images_and_Data/Data/qtest_excel.xlsx
+++ b/Images_and_Data/Data/qtest_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\ModSimPy_Directory\Images_and_Data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D42BAF0-F6A0-46DC-A08C-7A6795D5F1C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75BB0DB-E9B4-4F88-9B5F-40E1553CC096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="330" windowWidth="18645" windowHeight="14325" activeTab="2" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
+    <workbookView xWindow="270" yWindow="330" windowWidth="18645" windowHeight="14325" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,10 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>What is the color of the car?</t>
   </si>
@@ -65,18 +62,6 @@
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
   </si>
   <si>
     <t>Obviously it's not red.</t>
@@ -464,86 +449,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6C7967-0C46-4F3F-B2F4-DFA8B1F9707A}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="4" max="4" width="72" customWidth="1"/>
+    <col min="1" max="1" width="46" customWidth="1"/>
+    <col min="3" max="3" width="72" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -553,87 +523,71 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EF158B-CA6E-4845-8BF3-FADC014DDA1D}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="4" max="4" width="45.28515625" customWidth="1"/>
+    <col min="1" max="1" width="35" customWidth="1"/>
+    <col min="3" max="3" width="45.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -645,7 +599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E4A378-C52B-465E-833B-740E46756CFE}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3:D5"/>
     </sheetView>
   </sheetViews>
@@ -657,13 +611,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -682,7 +636,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -690,7 +644,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -698,7 +652,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Images_and_Data/Data/qtest_excel.xlsx
+++ b/Images_and_Data/Data/qtest_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\ModSimPy_Directory\Images_and_Data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75BB0DB-E9B4-4F88-9B5F-40E1553CC096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D76B0F-CBEF-462B-B29C-F0D29EC13CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="330" windowWidth="18645" windowHeight="14325" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
+    <workbookView xWindow="270" yWindow="330" windowWidth="18645" windowHeight="14325" activeTab="1" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>What is the color of the car?</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>Wow, that's way off.</t>
   </si>
 </sst>
 </file>
@@ -451,7 +454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6C7967-0C46-4F3F-B2F4-DFA8B1F9707A}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -523,10 +526,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EF158B-CA6E-4845-8BF3-FADC014DDA1D}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,6 +591,17 @@
       </c>
       <c r="C5" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Images_and_Data/Data/qtest_excel.xlsx
+++ b/Images_and_Data/Data/qtest_excel.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\ModSimPy_Directory\Images_and_Data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D76B0F-CBEF-462B-B29C-F0D29EC13CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BB4410-C8CB-4203-8501-D28B2BE8684E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="330" windowWidth="18645" windowHeight="14325" activeTab="1" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
+    <workbookView xWindow="15" yWindow="120" windowWidth="18555" windowHeight="14325" activeTab="3" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="MultC" sheetId="1" r:id="rId1"/>
+    <sheet name="MultC_2" sheetId="2" r:id="rId2"/>
+    <sheet name="Quant" sheetId="3" r:id="rId3"/>
+    <sheet name="MultAns" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
   <si>
     <t>What is the color of the car?</t>
   </si>
@@ -101,6 +102,27 @@
   </si>
   <si>
     <t>Wow, that's way off.</t>
+  </si>
+  <si>
+    <t>What is the best kind of bear?</t>
+  </si>
+  <si>
+    <t>Grizzly</t>
+  </si>
+  <si>
+    <t>Polar</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>Koala</t>
+  </si>
+  <si>
+    <t>It's not even a bear, dumbshit.</t>
+  </si>
+  <si>
+    <t>Obviously it's not the grizzly.</t>
   </si>
 </sst>
 </file>
@@ -455,7 +477,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,7 +550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EF158B-CA6E-4845-8BF3-FADC014DDA1D}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -672,4 +694,90 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7D16AA-24F2-475C-807B-39CEEE6B996C}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>